--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -118,21 +118,21 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -151,10 +151,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>gt</t>
@@ -811,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1503,25 +1503,25 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7030567685589519</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L20">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1529,25 +1529,25 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6888888888888889</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N21">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1555,25 +1555,25 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6842105263157895</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1581,25 +1581,25 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6785714285714286</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1607,25 +1607,25 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6777777777777778</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1789,25 +1789,25 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.599388379204893</v>
+        <v>0.5815789473684211</v>
       </c>
       <c r="L31">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="M31">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1815,25 +1815,25 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5815789473684211</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L32">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M32">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="10:17">
